--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J297"/>
+  <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10346,7 +10346,9 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr"/>
+      <c r="B297" t="n">
+        <v>435.78</v>
+      </c>
       <c r="C297" t="n">
         <v>355.0845454545454</v>
       </c>
@@ -10371,6 +10373,182 @@
       <c r="J297" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>438.69</v>
+      </c>
+      <c r="C298" t="n">
+        <v>374.5963636363636</v>
+      </c>
+      <c r="D298" t="n">
+        <v>366.5576923076923</v>
+      </c>
+      <c r="E298" t="n">
+        <v>364.3076923076923</v>
+      </c>
+      <c r="F298" t="n">
+        <v>359.8864705882353</v>
+      </c>
+      <c r="G298" t="n">
+        <v>354.5376923076923</v>
+      </c>
+      <c r="H298" t="n">
+        <v>356.84</v>
+      </c>
+      <c r="I298" t="n">
+        <v>363.5476923076923</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>439.46</v>
+      </c>
+      <c r="C299" t="n">
+        <v>381.6081818181818</v>
+      </c>
+      <c r="D299" t="n">
+        <v>373.17</v>
+      </c>
+      <c r="E299" t="n">
+        <v>369.36</v>
+      </c>
+      <c r="F299" t="n">
+        <v>369.2170588235294</v>
+      </c>
+      <c r="G299" t="n">
+        <v>366.42</v>
+      </c>
+      <c r="H299" t="n">
+        <v>365.5933333333333</v>
+      </c>
+      <c r="I299" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>419.83</v>
+      </c>
+      <c r="C300" t="n">
+        <v>378.3227272727273</v>
+      </c>
+      <c r="D300" t="n">
+        <v>373.3738461538462</v>
+      </c>
+      <c r="E300" t="n">
+        <v>362.5038461538462</v>
+      </c>
+      <c r="F300" t="n">
+        <v>363.5758823529412</v>
+      </c>
+      <c r="G300" t="n">
+        <v>360.6838461538461</v>
+      </c>
+      <c r="H300" t="n">
+        <v>362.6666666666667</v>
+      </c>
+      <c r="I300" t="n">
+        <v>372.3438461538461</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>434.11</v>
+      </c>
+      <c r="C301" t="n">
+        <v>372.2418181818182</v>
+      </c>
+      <c r="D301" t="n">
+        <v>368.7369230769231</v>
+      </c>
+      <c r="E301" t="n">
+        <v>368.4469230769231</v>
+      </c>
+      <c r="F301" t="n">
+        <v>361.9452941176471</v>
+      </c>
+      <c r="G301" t="n">
+        <v>357.4869230769231</v>
+      </c>
+      <c r="H301" t="n">
+        <v>371.1866666666667</v>
+      </c>
+      <c r="I301" t="n">
+        <v>369.7069230769231</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>451.81</v>
+      </c>
+      <c r="C302" t="n">
+        <v>374.9263636363637</v>
+      </c>
+      <c r="D302" t="n">
+        <v>369.3607692307692</v>
+      </c>
+      <c r="E302" t="n">
+        <v>362.7707692307693</v>
+      </c>
+      <c r="F302" t="n">
+        <v>350.8476470588236</v>
+      </c>
+      <c r="G302" t="n">
+        <v>355.9507692307693</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10385,7 +10563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13493,6 +13671,56 @@
       </c>
       <c r="B310" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -13661,28 +13889,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1281462163666258</v>
+        <v>-0.04360465082310815</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001613095630506156</v>
+        <v>0.0001947918202113152</v>
       </c>
       <c r="M2" t="n">
-        <v>18.16224639890155</v>
+        <v>18.15231146525487</v>
       </c>
       <c r="N2" t="n">
-        <v>492.533553859983</v>
+        <v>487.7526032994259</v>
       </c>
       <c r="O2" t="n">
-        <v>22.19309698667545</v>
+        <v>22.08512176329182</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2188367960243</v>
+        <v>423.3537419280049</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13738,28 +13966,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2133905006723287</v>
+        <v>-0.1892437427720774</v>
       </c>
       <c r="J3" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02533209761804223</v>
+        <v>0.02068205881448371</v>
       </c>
       <c r="M3" t="n">
-        <v>6.720637017009204</v>
+        <v>6.680269175625612</v>
       </c>
       <c r="N3" t="n">
-        <v>88.7149723597179</v>
+        <v>87.84402225103899</v>
       </c>
       <c r="O3" t="n">
-        <v>9.418862583121058</v>
+        <v>9.372514190495473</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6818082655328</v>
+        <v>375.4409664662344</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13815,28 +14043,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1278824648083869</v>
+        <v>-0.1197353887009298</v>
       </c>
       <c r="J4" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01532265408997269</v>
+        <v>0.0139398199336731</v>
       </c>
       <c r="M4" t="n">
-        <v>5.673122887129942</v>
+        <v>5.609150456834472</v>
       </c>
       <c r="N4" t="n">
-        <v>53.782794773149</v>
+        <v>52.97187518145734</v>
       </c>
       <c r="O4" t="n">
-        <v>7.333675393221942</v>
+        <v>7.278178012487558</v>
       </c>
       <c r="P4" t="n">
-        <v>371.3054045906978</v>
+        <v>371.2239574311951</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13892,28 +14120,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07975040674970434</v>
+        <v>-0.06100812292432122</v>
       </c>
       <c r="J5" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004087164652614828</v>
+        <v>0.002471130688811995</v>
       </c>
       <c r="M5" t="n">
-        <v>6.681239616085582</v>
+        <v>6.635193538237549</v>
       </c>
       <c r="N5" t="n">
-        <v>78.64373742735492</v>
+        <v>77.78000660924273</v>
       </c>
       <c r="O5" t="n">
-        <v>8.868130435855965</v>
+        <v>8.819297398843217</v>
       </c>
       <c r="P5" t="n">
-        <v>362.4114140883319</v>
+        <v>362.2227503862565</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -13969,28 +14197,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09941513929571956</v>
+        <v>-0.07417354635622259</v>
       </c>
       <c r="J6" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005073064080671319</v>
+        <v>0.002899665825586983</v>
       </c>
       <c r="M6" t="n">
-        <v>7.720309494387737</v>
+        <v>7.713318981612751</v>
       </c>
       <c r="N6" t="n">
-        <v>98.466763009856</v>
+        <v>98.10619553450022</v>
       </c>
       <c r="O6" t="n">
-        <v>9.923042023989217</v>
+        <v>9.904857168808656</v>
       </c>
       <c r="P6" t="n">
-        <v>356.8186991238747</v>
+        <v>356.5660635859837</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14046,28 +14274,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06384277494466997</v>
+        <v>-0.04987562623817789</v>
       </c>
       <c r="J7" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003002372818488808</v>
+        <v>0.001895342639372632</v>
       </c>
       <c r="M7" t="n">
-        <v>6.777789293044533</v>
+        <v>6.713546533004579</v>
       </c>
       <c r="N7" t="n">
-        <v>67.86032352329715</v>
+        <v>67.10898860808284</v>
       </c>
       <c r="O7" t="n">
-        <v>8.237737767330128</v>
+        <v>8.192007605470275</v>
       </c>
       <c r="P7" t="n">
-        <v>357.0648687759383</v>
+        <v>356.9236163326125</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14123,28 +14351,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02271077560513669</v>
+        <v>0.02178376792123921</v>
       </c>
       <c r="J8" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003731478039774583</v>
+        <v>0.0003535374844878536</v>
       </c>
       <c r="M8" t="n">
-        <v>6.158720001104699</v>
+        <v>6.129506138266816</v>
       </c>
       <c r="N8" t="n">
-        <v>67.23465464819996</v>
+        <v>66.58107273155716</v>
       </c>
       <c r="O8" t="n">
-        <v>8.19967405743667</v>
+        <v>8.159722589129924</v>
       </c>
       <c r="P8" t="n">
-        <v>363.789092557391</v>
+        <v>363.7982638639701</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14200,28 +14428,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1902324446916326</v>
+        <v>-0.1746048704260992</v>
       </c>
       <c r="J9" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02282062813900709</v>
+        <v>0.01977539020292729</v>
       </c>
       <c r="M9" t="n">
-        <v>6.968298342858591</v>
+        <v>6.944181091735606</v>
       </c>
       <c r="N9" t="n">
-        <v>76.99901783661366</v>
+        <v>76.39360000509461</v>
       </c>
       <c r="O9" t="n">
-        <v>8.774908423260818</v>
+        <v>8.740343242979341</v>
       </c>
       <c r="P9" t="n">
-        <v>369.6598905732371</v>
+        <v>369.5007213671208</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -14258,7 +14486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J297"/>
+  <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28128,7 +28356,11 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr"/>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-35.636526679574004,174.5302103991943</t>
+        </is>
+      </c>
       <c r="C297" t="inlineStr">
         <is>
           <t>-35.63558026754233,174.53073360639831</t>
@@ -28167,6 +28399,258 @@
       <c r="J297" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.63653588435446,174.53018030935817</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.6356738231117,174.53055116043896</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-35.63512004936601,174.5300303151193</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-35.63479395016659,174.52924789607135</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-35.63461484994396,174.52838057865495</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-35.634607279783346,174.52747716691704</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>-35.63468741294253,174.52658216060178</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>-35.63483042925724,174.52569809665601</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.6365383199824,174.53017234744158</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.63570744342132,174.53048559607478</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.635168503284405,174.52998779233647</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.63483732407078,174.52923088305675</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.63469881675224,174.52837458340042</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-35.634714055243165,174.5274875516681</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-35.634765858926016,174.52659257985295</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-35.634920346039294,174.52571185177555</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.63647622712434,174.53037532445785</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.635691690307645,174.53051631689232</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.63516999703575,174.5299864814309</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.63477846420298,174.52925397029352</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.63464805129459,174.52837820807</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-35.63466250966168,174.5274825384518</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-35.63473963060431,174.52658909618603</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-35.63490910988209,174.52571013291004</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.63652139710217,174.53022766724135</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.63566253351471,174.53057317672403</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.63513601841723,174.53001630081081</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.63482948533401,174.52923395773047</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.634633377483404,174.52837925578405</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-35.6346337818302,174.52747974444588</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-35.63481598548996,174.52659923771103</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>-35.63488552289663,174.5257065246625</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.63657738485388,174.53004464650317</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.635675405398544,174.53054807475834</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.635140589860825,174.53001228894814</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.6347807557294,174.52925307146418</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.63453350875161,174.52838638643078</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-35.63461997781678,174.52747840189863</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -13734,7 +13734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13825,35 +13825,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -13912,27 +13917,28 @@
       <c r="P2" t="n">
         <v>423.3537419280049</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.53471634905824 -35.63514815688337, 174.52514950954605 -35.63807472186321)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5347163490582</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.63514815688337</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5251495095461</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.63807472186321</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5299329293022</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.63661143937329</v>
       </c>
     </row>
@@ -13989,27 +13995,28 @@
       <c r="P3" t="n">
         <v>375.4409664662344</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.5340537618349 -35.633877655948226, 174.52540455687858 -35.63831272341749)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5340537618349</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.63387765594823</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5254045568786</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.63831272341749</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5297291593567</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.63609518968286</v>
       </c>
     </row>
@@ -14066,27 +14073,28 @@
       <c r="P4" t="n">
         <v>371.2239574311951</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.53238751448154 -35.63243395195894, 174.5264424639216 -35.639208085568775)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5323875144815</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.63243395195894</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5264424639216</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.63920808556878</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5294149892016</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.63582101876386</v>
       </c>
     </row>
@@ -14143,27 +14151,28 @@
       <c r="P5" t="n">
         <v>362.2227503862565</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.530474610277 -35.631666374045196, 174.5273628055488 -35.63959961563188)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.530474610277</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.6316663740452</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5273628055488</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.63959961563188</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5289187079129</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.63563299483854</v>
       </c>
     </row>
@@ -14220,27 +14229,28 @@
       <c r="P6" t="n">
         <v>356.5660635859837</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.52861181218415 -35.6313761981588, 174.52801812723 -35.63969094390538)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5286118121842</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.6313761981588</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.52801812723</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.63969094390538</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5283149697071</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.63553357103208</v>
       </c>
     </row>
@@ -14297,27 +14307,28 @@
       <c r="P7" t="n">
         <v>356.9236163326125</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.52716732761448 -35.631421371394346, 174.52797485705773 -35.639724119413664)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5271673276145</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.63142137139435</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5279748570577</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.63972411941366</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5275710923361</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.635572745404</v>
       </c>
     </row>
@@ -14374,27 +14385,28 @@
       <c r="P8" t="n">
         <v>363.7982638639701</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.52615742722696 -35.631489467485125, 174.52725726537165 -35.63976987484172)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.526157427227</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.63148946748512</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5272572653716</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.63976987484172</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5267073462993</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.63562967116342</v>
       </c>
     </row>
@@ -14451,27 +14463,28 @@
       <c r="P9" t="n">
         <v>369.5007213671208</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.5252006577577 -35.63157853286219, 174.52646500268116 -35.63984331985469)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5252006577577</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.63157853286219</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.5264650026812</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.63984331985469</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5258328302194</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.63571092635844</v>
       </c>
     </row>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J302"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10549,6 +10549,114 @@
       <c r="J302" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>421.51</v>
+      </c>
+      <c r="C303" t="n">
+        <v>369.1927272727273</v>
+      </c>
+      <c r="D303" t="n">
+        <v>369.2953846153847</v>
+      </c>
+      <c r="E303" t="n">
+        <v>365.5653846153846</v>
+      </c>
+      <c r="F303" t="n">
+        <v>357.1829411764706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>354.5753846153846</v>
+      </c>
+      <c r="H303" t="n">
+        <v>363.57</v>
+      </c>
+      <c r="I303" t="n">
+        <v>365.1253846153846</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>401.11</v>
+      </c>
+      <c r="C304" t="n">
+        <v>373.579090909091</v>
+      </c>
+      <c r="D304" t="n">
+        <v>374.8053846153846</v>
+      </c>
+      <c r="E304" t="n">
+        <v>370.3153846153846</v>
+      </c>
+      <c r="F304" t="n">
+        <v>361.0535294117647</v>
+      </c>
+      <c r="G304" t="n">
+        <v>357.9853846153846</v>
+      </c>
+      <c r="H304" t="n">
+        <v>368.2333333333333</v>
+      </c>
+      <c r="I304" t="n">
+        <v>377.6953846153846</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>407.74</v>
+      </c>
+      <c r="C305" t="n">
+        <v>367.5481818181818</v>
+      </c>
+      <c r="D305" t="n">
+        <v>362.9761538461539</v>
+      </c>
+      <c r="E305" t="n">
+        <v>361.1661538461539</v>
+      </c>
+      <c r="F305" t="n">
+        <v>357.4123529411764</v>
+      </c>
+      <c r="G305" t="n">
+        <v>357.5961538461539</v>
+      </c>
+      <c r="H305" t="n">
+        <v>361.5133333333333</v>
+      </c>
+      <c r="I305" t="n">
+        <v>369.1061538461539</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10563,7 +10671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13721,6 +13829,36 @@
       </c>
       <c r="B315" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -13894,28 +14032,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04360465082310815</v>
+        <v>-0.07577304034458156</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001947918202113152</v>
+        <v>0.0006010368588218462</v>
       </c>
       <c r="M2" t="n">
-        <v>18.15231146525487</v>
+        <v>18.04874945041856</v>
       </c>
       <c r="N2" t="n">
-        <v>487.7526032994259</v>
+        <v>484.1397897183272</v>
       </c>
       <c r="O2" t="n">
-        <v>22.08512176329182</v>
+        <v>22.00317680968653</v>
       </c>
       <c r="P2" t="n">
-        <v>423.3537419280049</v>
+        <v>423.6864534320932</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13972,28 +14110,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1892437427720774</v>
+        <v>-0.1904472141026524</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02068205881448371</v>
+        <v>0.02143984360302453</v>
       </c>
       <c r="M3" t="n">
-        <v>6.680269175625612</v>
+        <v>6.631607730689829</v>
       </c>
       <c r="N3" t="n">
-        <v>87.84402225103899</v>
+        <v>86.88188618990208</v>
       </c>
       <c r="O3" t="n">
-        <v>9.372514190495473</v>
+        <v>9.321045337831057</v>
       </c>
       <c r="P3" t="n">
-        <v>375.4409664662344</v>
+        <v>375.4531524255919</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14050,28 +14188,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1197353887009298</v>
+        <v>-0.1178812730954595</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0139398199336731</v>
+        <v>0.01376034669172221</v>
       </c>
       <c r="M4" t="n">
-        <v>5.609150456834472</v>
+        <v>5.592380052436646</v>
       </c>
       <c r="N4" t="n">
-        <v>52.97187518145734</v>
+        <v>52.64291630811664</v>
       </c>
       <c r="O4" t="n">
-        <v>7.278178012487558</v>
+        <v>7.255543832692119</v>
       </c>
       <c r="P4" t="n">
-        <v>371.2239574311951</v>
+        <v>371.2054569868879</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14128,28 +14266,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06100812292432122</v>
+        <v>-0.05011194525154761</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002471130688811995</v>
+        <v>0.001697583047944984</v>
       </c>
       <c r="M5" t="n">
-        <v>6.635193538237549</v>
+        <v>6.607191147863686</v>
       </c>
       <c r="N5" t="n">
-        <v>77.78000660924273</v>
+        <v>77.33929573020804</v>
       </c>
       <c r="O5" t="n">
-        <v>8.819297398843217</v>
+        <v>8.794276305086624</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2227503862565</v>
+        <v>362.1121690878186</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14206,28 +14344,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07417354635622259</v>
+        <v>-0.06565627183752708</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002899665825586983</v>
+        <v>0.002321865353427377</v>
       </c>
       <c r="M6" t="n">
-        <v>7.713318981612751</v>
+        <v>7.665058774253732</v>
       </c>
       <c r="N6" t="n">
-        <v>98.10619553450022</v>
+        <v>97.2056138065085</v>
       </c>
       <c r="O6" t="n">
-        <v>9.904857168808656</v>
+        <v>9.859290735469184</v>
       </c>
       <c r="P6" t="n">
-        <v>356.5660635859837</v>
+        <v>356.4799567223707</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14284,28 +14422,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04987562623817789</v>
+        <v>-0.04739584992862488</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001895342639372632</v>
+        <v>0.001752673955272788</v>
       </c>
       <c r="M7" t="n">
-        <v>6.713546533004579</v>
+        <v>6.654264098594739</v>
       </c>
       <c r="N7" t="n">
-        <v>67.10898860808284</v>
+        <v>66.36272401112038</v>
       </c>
       <c r="O7" t="n">
-        <v>8.192007605470275</v>
+        <v>8.146331935977098</v>
       </c>
       <c r="P7" t="n">
-        <v>356.9236163326125</v>
+        <v>356.898230455567</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14362,28 +14500,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02178376792123921</v>
+        <v>0.02197668441209413</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K8" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003535374844878536</v>
+        <v>0.0003689033372764605</v>
       </c>
       <c r="M8" t="n">
-        <v>6.129506138266816</v>
+        <v>6.08585973029359</v>
       </c>
       <c r="N8" t="n">
-        <v>66.58107273155716</v>
+        <v>65.87706816813893</v>
       </c>
       <c r="O8" t="n">
-        <v>8.159722589129924</v>
+        <v>8.116468947032258</v>
       </c>
       <c r="P8" t="n">
-        <v>363.7982638639701</v>
+        <v>363.7963653348988</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14440,28 +14578,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1746048704260992</v>
+        <v>-0.1615938682214783</v>
       </c>
       <c r="J9" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K9" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01977539020292729</v>
+        <v>0.01724691638655951</v>
       </c>
       <c r="M9" t="n">
-        <v>6.944181091735606</v>
+        <v>6.925466263441792</v>
       </c>
       <c r="N9" t="n">
-        <v>76.39360000509461</v>
+        <v>76.17656523336207</v>
       </c>
       <c r="O9" t="n">
-        <v>8.740343242979341</v>
+        <v>8.727918722889328</v>
       </c>
       <c r="P9" t="n">
-        <v>369.5007213671208</v>
+        <v>369.367000119795</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14499,7 +14637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J302"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28667,6 +28805,162 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.63648154124858,174.53035795302955</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.63564791369876,174.5306016873788</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.63514011073296,174.53001270942698</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.6348047474161,174.52924366095138</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.634590520637815,174.52838231577272</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.634607618489746,174.52747719985885</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-35.634747726134165,174.52659017144057</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-35.63484454154092,174.52570025549593</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.636417012431075,174.53056889164068</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.63566894548321,174.53056067249491</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.63518048711549,174.5299772754096</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.63484552601771,174.5292276659165</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.63462535241203,174.52837982877617</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.634638261049375,174.52748018008475</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-35.634789518186366,174.5265957222973</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-35.63495697880131,174.52571745572308</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.63643798433645,174.53050033663058</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.635640028410705,174.53061706476694</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.63509380442711,174.53005334744762</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.6347669801556,174.52925847480057</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.63459258513506,174.5283821683672</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.634634763387496,174.52747983990994</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-35.63472929461414,174.52658772335218</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-35.63488014908224,174.5257057025971</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10655,6 +10655,114 @@
         <v>369.1061538461539</v>
       </c>
       <c r="J305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>393.94</v>
+      </c>
+      <c r="C306" t="n">
+        <v>367.1363636363636</v>
+      </c>
+      <c r="D306" t="n">
+        <v>361.2292307692308</v>
+      </c>
+      <c r="E306" t="n">
+        <v>352.2892307692308</v>
+      </c>
+      <c r="F306" t="n">
+        <v>342.6170588235294</v>
+      </c>
+      <c r="G306" t="n">
+        <v>348.9092307692308</v>
+      </c>
+      <c r="H306" t="n">
+        <v>359.3066666666667</v>
+      </c>
+      <c r="I306" t="n">
+        <v>356.0292307692308</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>427.72</v>
+      </c>
+      <c r="C307" t="n">
+        <v>371.6263636363637</v>
+      </c>
+      <c r="D307" t="n">
+        <v>372.6830769230769</v>
+      </c>
+      <c r="E307" t="n">
+        <v>370.6930769230769</v>
+      </c>
+      <c r="F307" t="n">
+        <v>360.6082352941176</v>
+      </c>
+      <c r="G307" t="n">
+        <v>359.6430769230769</v>
+      </c>
+      <c r="H307" t="n">
+        <v>370.8833333333333</v>
+      </c>
+      <c r="I307" t="n">
+        <v>373.9930769230769</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>412.96</v>
+      </c>
+      <c r="C308" t="n">
+        <v>361.0654545454545</v>
+      </c>
+      <c r="D308" t="n">
+        <v>357.3976923076923</v>
+      </c>
+      <c r="E308" t="n">
+        <v>344.4676923076923</v>
+      </c>
+      <c r="F308" t="n">
+        <v>340.0417647058824</v>
+      </c>
+      <c r="G308" t="n">
+        <v>345.4276923076923</v>
+      </c>
+      <c r="H308" t="n">
+        <v>360.5733333333333</v>
+      </c>
+      <c r="I308" t="n">
+        <v>358.1476923076923</v>
+      </c>
+      <c r="J308" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10671,7 +10779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13859,6 +13967,36 @@
       </c>
       <c r="B318" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -14032,28 +14170,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07577304034458156</v>
+        <v>-0.1020536516670584</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006010368588218462</v>
+        <v>0.001110788233019022</v>
       </c>
       <c r="M2" t="n">
-        <v>18.04874945041856</v>
+        <v>17.97902421937601</v>
       </c>
       <c r="N2" t="n">
-        <v>484.1397897183272</v>
+        <v>481.6344064118078</v>
       </c>
       <c r="O2" t="n">
-        <v>22.00317680968653</v>
+        <v>21.9461706548502</v>
       </c>
       <c r="P2" t="n">
-        <v>423.6864534320932</v>
+        <v>423.9595941197067</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14110,28 +14248,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1904472141026524</v>
+        <v>-0.1995401914750188</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02143984360302453</v>
+        <v>0.02394631656284663</v>
       </c>
       <c r="M3" t="n">
-        <v>6.631607730689829</v>
+        <v>6.61737298372295</v>
       </c>
       <c r="N3" t="n">
-        <v>86.88188618990208</v>
+        <v>86.26014702153813</v>
       </c>
       <c r="O3" t="n">
-        <v>9.321045337831057</v>
+        <v>9.287634091712384</v>
       </c>
       <c r="P3" t="n">
-        <v>375.4531524255919</v>
+        <v>375.5453555857167</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14188,28 +14326,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1178812730954595</v>
+        <v>-0.1274424157924732</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01376034669172221</v>
+        <v>0.01620053219109541</v>
       </c>
       <c r="M4" t="n">
-        <v>5.592380052436646</v>
+        <v>5.622480088553213</v>
       </c>
       <c r="N4" t="n">
-        <v>52.64291630811664</v>
+        <v>52.73652177241247</v>
       </c>
       <c r="O4" t="n">
-        <v>7.255543832692119</v>
+        <v>7.26199158443553</v>
       </c>
       <c r="P4" t="n">
-        <v>371.2054569868879</v>
+        <v>371.3025698731265</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14266,28 +14404,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05011194525154761</v>
+        <v>-0.0608194437406706</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001697583047944984</v>
+        <v>0.002502688439185219</v>
       </c>
       <c r="M5" t="n">
-        <v>6.607191147863686</v>
+        <v>6.671038218794107</v>
       </c>
       <c r="N5" t="n">
-        <v>77.33929573020804</v>
+        <v>78.0868664019489</v>
       </c>
       <c r="O5" t="n">
-        <v>8.794276305086624</v>
+        <v>8.836677339472619</v>
       </c>
       <c r="P5" t="n">
-        <v>362.1121690878186</v>
+        <v>362.2217700379915</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14344,28 +14482,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06565627183752708</v>
+        <v>-0.08082293422142446</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002321865353427377</v>
+        <v>0.003541366626741538</v>
       </c>
       <c r="M6" t="n">
-        <v>7.665058774253732</v>
+        <v>7.709341614825955</v>
       </c>
       <c r="N6" t="n">
-        <v>97.2056138065085</v>
+        <v>97.58648405632084</v>
       </c>
       <c r="O6" t="n">
-        <v>9.859290735469184</v>
+        <v>9.878587148794145</v>
       </c>
       <c r="P6" t="n">
-        <v>356.4799567223707</v>
+        <v>356.6343577403236</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14422,28 +14560,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04739584992862488</v>
+        <v>-0.05724819976900877</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K7" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001752673955272788</v>
+        <v>0.002591108321172375</v>
       </c>
       <c r="M7" t="n">
-        <v>6.654264098594739</v>
+        <v>6.663703650911677</v>
       </c>
       <c r="N7" t="n">
-        <v>66.36272401112038</v>
+        <v>66.23010931533707</v>
       </c>
       <c r="O7" t="n">
-        <v>8.146331935977098</v>
+        <v>8.138188331277243</v>
       </c>
       <c r="P7" t="n">
-        <v>356.898230455567</v>
+        <v>356.9995282097998</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14500,28 +14638,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02197668441209413</v>
+        <v>0.02011302060886811</v>
       </c>
       <c r="J8" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K8" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003689033372764605</v>
+        <v>0.000315489586132145</v>
       </c>
       <c r="M8" t="n">
-        <v>6.08585973029359</v>
+        <v>6.075367999004439</v>
       </c>
       <c r="N8" t="n">
-        <v>65.87706816813893</v>
+        <v>65.42145765773938</v>
       </c>
       <c r="O8" t="n">
-        <v>8.116468947032258</v>
+        <v>8.088353210495903</v>
       </c>
       <c r="P8" t="n">
-        <v>363.7963653348988</v>
+        <v>363.8156273466086</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14578,28 +14716,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1615938682214783</v>
+        <v>-0.1672715173729737</v>
       </c>
       <c r="J9" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K9" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01724691638655951</v>
+        <v>0.01869777637081327</v>
       </c>
       <c r="M9" t="n">
-        <v>6.925466263441792</v>
+        <v>6.942338240466238</v>
       </c>
       <c r="N9" t="n">
-        <v>76.17656523336207</v>
+        <v>76.10884369347525</v>
       </c>
       <c r="O9" t="n">
-        <v>8.727918722889328</v>
+        <v>8.724038267538448</v>
       </c>
       <c r="P9" t="n">
-        <v>369.367000119795</v>
+        <v>369.4256971428962</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14637,7 +14775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28961,6 +29099,162 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.6363943323637,174.53064303027506</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.63563805381921,174.53062091548887</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.63508100325373,174.5300645816384</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.63469077203953,174.5292883666675</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.63445944094103,174.52839167487818</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-35.63455670193277,174.5274722478359</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-35.63470951881779,174.52658509671744</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-35.63476317744681,174.52568780875853</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.63650118450797,174.53029374076496</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.63565958252675,174.53057893155886</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.635164935191554,174.52999092366923</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.634848768494294,174.5292263940839</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.63462134516993,174.52838011489425</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-35.63465315721802,174.52748162885337</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-35.634813267064885,174.52659887664697</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-35.634923862068895,174.5257123896448</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.636454496126476,174.53044636116667</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.635608944926695,174.53067768173813</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.635052926348216,174.53008922165438</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.6346236243627,174.52931470462096</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.63443626563534,174.52839332959533</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.634525416521456,174.52746920509514</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-35.634720870483385,174.52658660445323</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-35.634782126852166,174.52569070755644</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.63568289401674,174.53053347090187</t>
+          <t>-35.63568289401673,174.53053347090187</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10765,6 +10765,42 @@
       <c r="J308" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>389.96</v>
+      </c>
+      <c r="C309" t="n">
+        <v>366.5290909090909</v>
+      </c>
+      <c r="D309" t="n">
+        <v>366.3230769230769</v>
+      </c>
+      <c r="E309" t="n">
+        <v>355.4830769230769</v>
+      </c>
+      <c r="F309" t="n">
+        <v>349.8994117647059</v>
+      </c>
+      <c r="G309" t="n">
+        <v>348.0230769230769</v>
+      </c>
+      <c r="H309" t="n">
+        <v>348.06</v>
+      </c>
+      <c r="I309" t="n">
+        <v>357.9030769230769</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13997,6 +14033,16 @@
       </c>
       <c r="B321" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -14170,28 +14216,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1020536516670584</v>
+        <v>-0.1287932751238921</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001110788233019022</v>
+        <v>0.001768115540824788</v>
       </c>
       <c r="M2" t="n">
-        <v>17.97902421937601</v>
+        <v>18.01740294987285</v>
       </c>
       <c r="N2" t="n">
-        <v>481.6344064118078</v>
+        <v>483.7469454078688</v>
       </c>
       <c r="O2" t="n">
-        <v>21.9461706548502</v>
+        <v>21.99424800732839</v>
       </c>
       <c r="P2" t="n">
-        <v>423.9595941197067</v>
+        <v>424.2382601678136</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14248,28 +14294,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1995401914750188</v>
+        <v>-0.202492119304728</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02394631656284663</v>
+        <v>0.02481818170152661</v>
       </c>
       <c r="M3" t="n">
-        <v>6.61737298372295</v>
+        <v>6.609435645866909</v>
       </c>
       <c r="N3" t="n">
-        <v>86.26014702153813</v>
+        <v>85.98268039061242</v>
       </c>
       <c r="O3" t="n">
-        <v>9.287634091712384</v>
+        <v>9.272684637720213</v>
       </c>
       <c r="P3" t="n">
-        <v>375.5453555857167</v>
+        <v>375.575335280613</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14326,28 +14372,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1274424157924732</v>
+        <v>-0.1286649331480154</v>
       </c>
       <c r="J4" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01620053219109541</v>
+        <v>0.01662569564945737</v>
       </c>
       <c r="M4" t="n">
-        <v>5.622480088553213</v>
+        <v>5.609019302462611</v>
       </c>
       <c r="N4" t="n">
-        <v>52.73652177241247</v>
+        <v>52.55047321654627</v>
       </c>
       <c r="O4" t="n">
-        <v>7.26199158443553</v>
+        <v>7.24917051920744</v>
       </c>
       <c r="P4" t="n">
-        <v>371.3025698731265</v>
+        <v>371.3150099775529</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14404,28 +14450,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0608194437406706</v>
+        <v>-0.06447806902314536</v>
       </c>
       <c r="J5" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002502688439185219</v>
+        <v>0.00282900836155997</v>
       </c>
       <c r="M5" t="n">
-        <v>6.671038218794107</v>
+        <v>6.668684067403099</v>
       </c>
       <c r="N5" t="n">
-        <v>78.0868664019489</v>
+        <v>77.89790290365406</v>
       </c>
       <c r="O5" t="n">
-        <v>8.836677339472619</v>
+        <v>8.82597886376656</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2217700379915</v>
+        <v>362.2592788258477</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14482,28 +14528,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08082293422142446</v>
+        <v>-0.08414432798012619</v>
       </c>
       <c r="J6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003541366626741538</v>
+        <v>0.003862628156783621</v>
       </c>
       <c r="M6" t="n">
-        <v>7.709341614825955</v>
+        <v>7.699852394358214</v>
       </c>
       <c r="N6" t="n">
-        <v>97.58648405632084</v>
+        <v>97.30661245636487</v>
       </c>
       <c r="O6" t="n">
-        <v>9.878587148794145</v>
+        <v>9.864411409524893</v>
       </c>
       <c r="P6" t="n">
-        <v>356.6343577403236</v>
+        <v>356.6682381793339</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14560,28 +14606,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05724819976900877</v>
+        <v>-0.06286255574394908</v>
       </c>
       <c r="J7" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002591108321172375</v>
+        <v>0.00313657977636328</v>
       </c>
       <c r="M7" t="n">
-        <v>6.663703650911677</v>
+        <v>6.66971557783605</v>
       </c>
       <c r="N7" t="n">
-        <v>66.23010931533707</v>
+        <v>66.18955470134576</v>
       </c>
       <c r="O7" t="n">
-        <v>8.138188331277243</v>
+        <v>8.135696325536355</v>
       </c>
       <c r="P7" t="n">
-        <v>356.9995282097998</v>
+        <v>357.057358788987</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14638,28 +14684,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02011302060886811</v>
+        <v>0.007113909824213914</v>
       </c>
       <c r="J8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000315489586132145</v>
+        <v>3.919190204848544e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.075367999004439</v>
+        <v>6.124628975272065</v>
       </c>
       <c r="N8" t="n">
-        <v>65.42145765773938</v>
+        <v>66.19360670603523</v>
       </c>
       <c r="O8" t="n">
-        <v>8.088353210495903</v>
+        <v>8.135945348024114</v>
       </c>
       <c r="P8" t="n">
-        <v>363.8156273466086</v>
+        <v>363.9503215659044</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14716,28 +14762,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1672715173729737</v>
+        <v>-0.1727063808922886</v>
       </c>
       <c r="J9" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01869777637081327</v>
+        <v>0.0200092763052595</v>
       </c>
       <c r="M9" t="n">
-        <v>6.942338240466238</v>
+        <v>6.944177394769264</v>
       </c>
       <c r="N9" t="n">
-        <v>76.10884369347525</v>
+        <v>76.01529799905273</v>
       </c>
       <c r="O9" t="n">
-        <v>8.724038267538448</v>
+        <v>8.718675243352784</v>
       </c>
       <c r="P9" t="n">
-        <v>369.4256971428962</v>
+        <v>369.4820177769297</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14775,7 +14821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29255,6 +29301,58 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.63638174285095,174.53068418391948</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.63563514205935,174.53062659381578</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.63511833014226,174.53003182389554</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.634718191112945,174.52927761181834</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-35.634524975496184,174.52838699570626</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-35.63454873887626,174.5274714733687</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-35.63460872797425,174.52657170963212</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-35.63477993879448,174.52569037283678</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10801,6 +10801,112 @@
       <c r="J309" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>382.96</v>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="n">
+        <v>370.9669230769231</v>
+      </c>
+      <c r="E310" t="n">
+        <v>361.6669230769231</v>
+      </c>
+      <c r="F310" t="n">
+        <v>355.2282352941176</v>
+      </c>
+      <c r="G310" t="n">
+        <v>352.3969230769231</v>
+      </c>
+      <c r="H310" t="n">
+        <v>363.0833333333333</v>
+      </c>
+      <c r="I310" t="n">
+        <v>369.2969230769231</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>409.7</v>
+      </c>
+      <c r="C311" t="n">
+        <v>372.129090909091</v>
+      </c>
+      <c r="D311" t="n">
+        <v>368.3184615384615</v>
+      </c>
+      <c r="E311" t="n">
+        <v>355.9384615384615</v>
+      </c>
+      <c r="F311" t="n">
+        <v>345.484705882353</v>
+      </c>
+      <c r="G311" t="n">
+        <v>358.5284615384616</v>
+      </c>
+      <c r="H311" t="n">
+        <v>363.5166666666667</v>
+      </c>
+      <c r="I311" t="n">
+        <v>365.9684615384616</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>412.73</v>
+      </c>
+      <c r="C312" t="n">
+        <v>372.4354545454545</v>
+      </c>
+      <c r="D312" t="n">
+        <v>368.5907692307693</v>
+      </c>
+      <c r="E312" t="n">
+        <v>361.6507692307693</v>
+      </c>
+      <c r="F312" t="n">
+        <v>351.3994117647059</v>
+      </c>
+      <c r="G312" t="n">
+        <v>364.8307692307693</v>
+      </c>
+      <c r="H312" t="n">
+        <v>369.2533333333333</v>
+      </c>
+      <c r="I312" t="n">
+        <v>372.7307692307692</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14043,6 +14149,36 @@
       </c>
       <c r="B322" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -14216,28 +14352,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1287932751238921</v>
+        <v>-0.1760928406498308</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001768115540824788</v>
+        <v>0.003338974303853104</v>
       </c>
       <c r="M2" t="n">
-        <v>18.01740294987285</v>
+        <v>17.98852936007482</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7469454078688</v>
+        <v>484.3485885688449</v>
       </c>
       <c r="O2" t="n">
-        <v>21.99424800732839</v>
+        <v>22.00792104149879</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2382601678136</v>
+        <v>424.7325153436624</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14294,28 +14430,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.202492119304728</v>
+        <v>-0.1996107009556953</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02481818170152661</v>
+        <v>0.02450122773405505</v>
       </c>
       <c r="M3" t="n">
-        <v>6.609435645866909</v>
+        <v>6.570348089046795</v>
       </c>
       <c r="N3" t="n">
-        <v>85.98268039061242</v>
+        <v>85.34692262975666</v>
       </c>
       <c r="O3" t="n">
-        <v>9.272684637720213</v>
+        <v>9.238339819997783</v>
       </c>
       <c r="P3" t="n">
-        <v>375.575335280613</v>
+        <v>375.5459458099411</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14372,28 +14508,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1286649331480154</v>
+        <v>-0.1259620568298918</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01662569564945737</v>
+        <v>0.01628412726182304</v>
       </c>
       <c r="M4" t="n">
-        <v>5.609019302462611</v>
+        <v>5.558244998826289</v>
       </c>
       <c r="N4" t="n">
-        <v>52.55047321654627</v>
+        <v>52.00221417383759</v>
       </c>
       <c r="O4" t="n">
-        <v>7.24917051920744</v>
+        <v>7.211256074626499</v>
       </c>
       <c r="P4" t="n">
-        <v>371.3150099775529</v>
+        <v>371.2874312352816</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14450,28 +14586,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06447806902314536</v>
+        <v>-0.06622407016720609</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00282900836155997</v>
+        <v>0.003045335558458762</v>
       </c>
       <c r="M5" t="n">
-        <v>6.668684067403099</v>
+        <v>6.622352672359401</v>
       </c>
       <c r="N5" t="n">
-        <v>77.89790290365406</v>
+        <v>77.13777718364679</v>
       </c>
       <c r="O5" t="n">
-        <v>8.82597886376656</v>
+        <v>8.782811462376202</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2592788258477</v>
+        <v>362.2772283719654</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14528,28 +14664,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08414432798012619</v>
+        <v>-0.09206140641715935</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003862628156783621</v>
+        <v>0.004706208291510583</v>
       </c>
       <c r="M6" t="n">
-        <v>7.699852394358214</v>
+        <v>7.666946277914517</v>
       </c>
       <c r="N6" t="n">
-        <v>97.30661245636487</v>
+        <v>96.5724077550411</v>
       </c>
       <c r="O6" t="n">
-        <v>9.864411409524893</v>
+        <v>9.827126118812208</v>
       </c>
       <c r="P6" t="n">
-        <v>356.6682381793339</v>
+        <v>356.7493082222595</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14606,28 +14742,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06286255574394908</v>
+        <v>-0.05595916488223338</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00313657977636328</v>
+        <v>0.002528794379649812</v>
       </c>
       <c r="M7" t="n">
-        <v>6.66971557783605</v>
+        <v>6.648912711805332</v>
       </c>
       <c r="N7" t="n">
-        <v>66.18955470134576</v>
+        <v>65.83786055013611</v>
       </c>
       <c r="O7" t="n">
-        <v>8.135696325536355</v>
+        <v>8.114053275036843</v>
       </c>
       <c r="P7" t="n">
-        <v>357.057358788987</v>
+        <v>356.9858469938812</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14684,28 +14820,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007113909824213914</v>
+        <v>0.009808588765014994</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K8" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L8" t="n">
-        <v>3.919190204848544e-05</v>
+        <v>7.624000315575863e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.124628975272065</v>
+        <v>6.077563127054002</v>
       </c>
       <c r="N8" t="n">
-        <v>66.19360670603523</v>
+        <v>65.52811248462487</v>
       </c>
       <c r="O8" t="n">
-        <v>8.135945348024114</v>
+        <v>8.09494363690229</v>
       </c>
       <c r="P8" t="n">
-        <v>363.9503215659044</v>
+        <v>363.9222238130301</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14762,28 +14898,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1727063808922886</v>
+        <v>-0.1632530730057664</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K9" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0200092763052595</v>
+        <v>0.01825627014280351</v>
       </c>
       <c r="M9" t="n">
-        <v>6.944177394769264</v>
+        <v>6.911745763624008</v>
       </c>
       <c r="N9" t="n">
-        <v>76.01529799905273</v>
+        <v>75.44345952370652</v>
       </c>
       <c r="O9" t="n">
-        <v>8.718675243352784</v>
+        <v>8.685819450328594</v>
       </c>
       <c r="P9" t="n">
-        <v>369.4820177769297</v>
+        <v>369.3836601245733</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14821,7 +14957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29353,6 +29489,158 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.63635960045841,174.5307565646687</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.63515235949558,174.53000196000733</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.634771279244084,174.52925678852463</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-35.63457293006239,174.52838357174315</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-35.634588042642775,174.52747529595774</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-35.6347433647048,174.5265895921521</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-35.634881855491926,174.52570596363705</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.63644418416843,174.53048006998398</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.63566199300881,174.5305742307854</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.635132951998756,174.5300189918751</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-35.63472210057613,174.52927607837105</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-35.6344852471573,174.5283898323132</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-35.6346431411863,174.52748065471607</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-35.63474724816929,174.5265901079569</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-35.63485208277099,174.52570140912312</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.63645376859597,174.5304487393964</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.63566346196434,174.53057136611855</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.635134947425485,174.53001724070464</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.63477114056382,174.52925684292063</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.63453847413225,174.52838603190196</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-35.634699774276186,174.52748616273013</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-35.634798659264156,174.52659693642408</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-35.63491257086622,174.52571066235845</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J312"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10907,6 +10907,76 @@
       <c r="J312" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>447.49</v>
+      </c>
+      <c r="C313" t="n">
+        <v>371.9481818181818</v>
+      </c>
+      <c r="D313" t="n">
+        <v>362.6738461538461</v>
+      </c>
+      <c r="E313" t="n">
+        <v>358.0138461538461</v>
+      </c>
+      <c r="F313" t="n">
+        <v>350.7882352941176</v>
+      </c>
+      <c r="G313" t="n">
+        <v>352.7438461538461</v>
+      </c>
+      <c r="H313" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="I313" t="n">
+        <v>362.5138461538461</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="n">
+        <v>371.3363636363636</v>
+      </c>
+      <c r="D314" t="n">
+        <v>361.5946153846153</v>
+      </c>
+      <c r="E314" t="n">
+        <v>353.6046153846154</v>
+      </c>
+      <c r="F314" t="n">
+        <v>342.3288235294117</v>
+      </c>
+      <c r="G314" t="n">
+        <v>349.1946153846154</v>
+      </c>
+      <c r="H314" t="n">
+        <v>356.56</v>
+      </c>
+      <c r="I314" t="n">
+        <v>358.3246153846154</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14179,6 +14249,26 @@
       </c>
       <c r="B325" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -14352,28 +14442,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1760928406498308</v>
+        <v>-0.1536514678373941</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003338974303853104</v>
+        <v>0.00254926257342325</v>
       </c>
       <c r="M2" t="n">
-        <v>17.98852936007482</v>
+        <v>18.04678523824732</v>
       </c>
       <c r="N2" t="n">
-        <v>484.3485885688449</v>
+        <v>485.4164217967869</v>
       </c>
       <c r="O2" t="n">
-        <v>22.00792104149879</v>
+        <v>22.03216788690543</v>
       </c>
       <c r="P2" t="n">
-        <v>424.7325153436624</v>
+        <v>424.4969301848545</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14430,28 +14520,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1996107009556953</v>
+        <v>-0.1977609374403826</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02450122773405505</v>
+        <v>0.02442461433380605</v>
       </c>
       <c r="M3" t="n">
-        <v>6.570348089046795</v>
+        <v>6.527553187217614</v>
       </c>
       <c r="N3" t="n">
-        <v>85.34692262975666</v>
+        <v>84.70546926277297</v>
       </c>
       <c r="O3" t="n">
-        <v>9.238339819997783</v>
+        <v>9.203557424320932</v>
       </c>
       <c r="P3" t="n">
-        <v>375.5459458099411</v>
+        <v>375.5270131418447</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14508,28 +14598,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1259620568298918</v>
+        <v>-0.1340939975115623</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01628412726182304</v>
+        <v>0.01858771228246492</v>
       </c>
       <c r="M4" t="n">
-        <v>5.558244998826289</v>
+        <v>5.568660325624339</v>
       </c>
       <c r="N4" t="n">
-        <v>52.00221417383759</v>
+        <v>51.8725867713792</v>
       </c>
       <c r="O4" t="n">
-        <v>7.211256074626499</v>
+        <v>7.202262614719016</v>
       </c>
       <c r="P4" t="n">
-        <v>371.2874312352816</v>
+        <v>371.3708604999278</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14586,28 +14676,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06622407016720609</v>
+        <v>-0.07270025901338636</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003045335558458762</v>
+        <v>0.003710418128021087</v>
       </c>
       <c r="M5" t="n">
-        <v>6.622352672359401</v>
+        <v>6.613966894893236</v>
       </c>
       <c r="N5" t="n">
-        <v>77.13777718364679</v>
+        <v>76.7770422685572</v>
       </c>
       <c r="O5" t="n">
-        <v>8.782811462376202</v>
+        <v>8.762250981828654</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2772283719654</v>
+        <v>362.3441788359837</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14664,28 +14754,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09206140641715935</v>
+        <v>-0.1027828972581124</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004706208291510583</v>
+        <v>0.005909284196272457</v>
       </c>
       <c r="M6" t="n">
-        <v>7.666946277914517</v>
+        <v>7.674409935093112</v>
       </c>
       <c r="N6" t="n">
-        <v>96.5724077550411</v>
+        <v>96.43527927647358</v>
       </c>
       <c r="O6" t="n">
-        <v>9.827126118812208</v>
+        <v>9.820146601577472</v>
       </c>
       <c r="P6" t="n">
-        <v>356.7493082222595</v>
+        <v>356.8595879342199</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14742,28 +14832,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05595916488223338</v>
+        <v>-0.06252539947669097</v>
       </c>
       <c r="J7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002528794379649812</v>
+        <v>0.003193629374566576</v>
       </c>
       <c r="M7" t="n">
-        <v>6.648912711805332</v>
+        <v>6.636002533970546</v>
       </c>
       <c r="N7" t="n">
-        <v>65.83786055013611</v>
+        <v>65.51882078759081</v>
       </c>
       <c r="O7" t="n">
-        <v>8.114053275036843</v>
+        <v>8.094369696745437</v>
       </c>
       <c r="P7" t="n">
-        <v>356.9858469938812</v>
+        <v>357.054039505138</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14820,28 +14910,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009808588765014994</v>
+        <v>0.005276410016614539</v>
       </c>
       <c r="J8" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" t="n">
-        <v>7.624000315575863e-05</v>
+        <v>2.234092767250395e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.077563127054002</v>
+        <v>6.069873324075008</v>
       </c>
       <c r="N8" t="n">
-        <v>65.52811248462487</v>
+        <v>65.25553703764719</v>
       </c>
       <c r="O8" t="n">
-        <v>8.09494363690229</v>
+        <v>8.078089937457195</v>
       </c>
       <c r="P8" t="n">
-        <v>363.9222238130301</v>
+        <v>363.9695776848673</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14898,28 +14988,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1632530730057664</v>
+        <v>-0.1701067554287103</v>
       </c>
       <c r="J9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01825627014280351</v>
+        <v>0.02003145283780594</v>
       </c>
       <c r="M9" t="n">
-        <v>6.911745763624008</v>
+        <v>6.896181867356571</v>
       </c>
       <c r="N9" t="n">
-        <v>75.44345952370652</v>
+        <v>75.07592693541828</v>
       </c>
       <c r="O9" t="n">
-        <v>8.685819450328594</v>
+        <v>8.664636572610434</v>
       </c>
       <c r="P9" t="n">
-        <v>369.3836601245733</v>
+        <v>369.4552593409882</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -14957,7 +15047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J312"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29641,6 +29731,106 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.63656372007181,174.53008931599584</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.635661125583994,174.53057592238383</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-35.63509158916468,174.53005529154166</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-35.63473991769021,174.5292690897869</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-35.634532974099756,174.528386424605</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-35.634591160124074,174.52747559915662</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-35.634768338368715,174.52659290917467</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-35.634821181617376,174.52569668199</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.63565819203159,174.53058164321652</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.63508368073394,174.53006223190704</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.6347020645771,174.5292839372868</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-35.63445684708544,174.52839186007955</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-35.63455926642405,174.52747249725203</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-35.634684903626976,174.52658182731312</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-35.63478370940961,174.52569094964926</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10952,7 +10952,9 @@
           <t>2025-08-09 22:11:49+00:00</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="n">
+        <v>382.01</v>
+      </c>
       <c r="C314" t="n">
         <v>371.3363636363636</v>
       </c>
@@ -10977,6 +10979,42 @@
       <c r="J314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>395.95</v>
+      </c>
+      <c r="C315" t="n">
+        <v>367.8990909090909</v>
+      </c>
+      <c r="D315" t="n">
+        <v>366.8730769230769</v>
+      </c>
+      <c r="E315" t="n">
+        <v>361.6330769230769</v>
+      </c>
+      <c r="F315" t="n">
+        <v>358.7294117647059</v>
+      </c>
+      <c r="G315" t="n">
+        <v>353.5930769230769</v>
+      </c>
+      <c r="H315" t="n">
+        <v>364.08</v>
+      </c>
+      <c r="I315" t="n">
+        <v>367.3530769230769</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10991,7 +11029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14269,6 +14307,16 @@
       </c>
       <c r="B327" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -15047,7 +15095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29789,7 +29837,11 @@
           <t>2025-08-09 22:11:49+00:00</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.636356595416146,174.53076638776722</t>
+        </is>
+      </c>
       <c r="C314" t="inlineStr">
         <is>
           <t>-35.63565819203159,174.53058164321652</t>
@@ -29828,6 +29880,58 @@
       <c r="J314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.636400690378736,174.53062224664552</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.63564171095438,174.5306137835777</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.635122360453636,174.53002828692814</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.6347709886759,174.5292569024972</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-35.63460443746678,174.52838132210817</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-35.634598791386445,174.52747634135528</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-35.634752296673135,174.52659077850322</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-35.63486446800276,174.52570330376676</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -14490,28 +14490,28 @@
         <v>0.0103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1536514678373941</v>
+        <v>-0.2045858790414275</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00254926257342325</v>
+        <v>0.004506912017204212</v>
       </c>
       <c r="M2" t="n">
-        <v>18.04678523824732</v>
+        <v>18.11142816789154</v>
       </c>
       <c r="N2" t="n">
-        <v>485.4164217967869</v>
+        <v>489.8936902230563</v>
       </c>
       <c r="O2" t="n">
-        <v>22.03216788690543</v>
+        <v>22.13354219782853</v>
       </c>
       <c r="P2" t="n">
-        <v>424.4969301848545</v>
+        <v>425.0337043477282</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14568,28 +14568,28 @@
         <v>0.0585</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1977609374403826</v>
+        <v>-0.1995942271669583</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02442461433380605</v>
+        <v>0.02505239823619654</v>
       </c>
       <c r="M3" t="n">
-        <v>6.527553187217614</v>
+        <v>6.514047567700583</v>
       </c>
       <c r="N3" t="n">
-        <v>84.70546926277297</v>
+        <v>84.40540736299241</v>
       </c>
       <c r="O3" t="n">
-        <v>9.203557424320932</v>
+        <v>9.187241553534577</v>
       </c>
       <c r="P3" t="n">
-        <v>375.5270131418447</v>
+        <v>375.5459279260904</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14646,28 +14646,28 @@
         <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1340939975115623</v>
+        <v>-0.1347928635742774</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01858771228246492</v>
+        <v>0.01891136439561436</v>
       </c>
       <c r="M4" t="n">
-        <v>5.568660325624339</v>
+        <v>5.552651791077679</v>
       </c>
       <c r="N4" t="n">
-        <v>51.8725867713792</v>
+        <v>51.68694300618921</v>
       </c>
       <c r="O4" t="n">
-        <v>7.202262614719016</v>
+        <v>7.189363185024749</v>
       </c>
       <c r="P4" t="n">
-        <v>371.3708604999278</v>
+        <v>371.3780884898572</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14724,28 +14724,28 @@
         <v>0.0701</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07270025901338636</v>
+        <v>-0.07189262015158361</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003710418128021087</v>
+        <v>0.003654404902704966</v>
       </c>
       <c r="M5" t="n">
-        <v>6.613966894893236</v>
+        <v>6.593829945362796</v>
       </c>
       <c r="N5" t="n">
-        <v>76.7770422685572</v>
+        <v>76.50679815505238</v>
       </c>
       <c r="O5" t="n">
-        <v>8.762250981828654</v>
+        <v>8.746816458292262</v>
       </c>
       <c r="P5" t="n">
-        <v>362.3441788359837</v>
+        <v>362.3357641975721</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14802,28 +14802,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1027828972581124</v>
+        <v>-0.09965019103570195</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005909284196272457</v>
+        <v>0.005592465257128643</v>
       </c>
       <c r="M6" t="n">
-        <v>7.674409935093112</v>
+        <v>7.661015596957694</v>
       </c>
       <c r="N6" t="n">
-        <v>96.43527927647358</v>
+        <v>96.16187072868571</v>
       </c>
       <c r="O6" t="n">
-        <v>9.820146601577472</v>
+        <v>9.806215923009534</v>
       </c>
       <c r="P6" t="n">
-        <v>356.8595879342199</v>
+        <v>356.827116290859</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14880,28 +14880,28 @@
         <v>0.0713</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06252539947669097</v>
+        <v>-0.06384865699852613</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003193629374566576</v>
+        <v>0.003354189689753651</v>
       </c>
       <c r="M7" t="n">
-        <v>6.636002533970546</v>
+        <v>6.618428265805011</v>
       </c>
       <c r="N7" t="n">
-        <v>65.51882078759081</v>
+        <v>65.28501272020524</v>
       </c>
       <c r="O7" t="n">
-        <v>8.094369696745437</v>
+        <v>8.079914153022001</v>
       </c>
       <c r="P7" t="n">
-        <v>357.054039505138</v>
+        <v>357.0678890882516</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14958,28 +14958,28 @@
         <v>0.0668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005276410016614539</v>
+        <v>0.005255799519157355</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K8" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L8" t="n">
-        <v>2.234092767250395e-05</v>
+        <v>2.234716876159393e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.069873324075008</v>
+        <v>6.046644602987362</v>
       </c>
       <c r="N8" t="n">
-        <v>65.25553703764719</v>
+        <v>65.00455694733209</v>
       </c>
       <c r="O8" t="n">
-        <v>8.078089937457195</v>
+        <v>8.062540353221936</v>
       </c>
       <c r="P8" t="n">
-        <v>363.9695776848673</v>
+        <v>363.9697944833014</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15036,28 +15036,28 @@
         <v>0.0683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1701067554287103</v>
+        <v>-0.1684207022020553</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02003145283780594</v>
+        <v>0.01978515833991501</v>
       </c>
       <c r="M9" t="n">
-        <v>6.896181867356571</v>
+        <v>6.878791878119507</v>
       </c>
       <c r="N9" t="n">
-        <v>75.07592693541828</v>
+        <v>74.81572072371223</v>
       </c>
       <c r="O9" t="n">
-        <v>8.664636572610434</v>
+        <v>8.649608125441997</v>
       </c>
       <c r="P9" t="n">
-        <v>369.4552593409882</v>
+        <v>369.4375113030981</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0093/nzd0093.xlsx
+++ b/data/nzd0093/nzd0093.xlsx
@@ -14481,13 +14481,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0.0147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0103</v>
+        <v>0.0154</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2045858790414275</v>
@@ -14562,10 +14562,10 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0496</v>
+        <v>0.0528</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0585</v>
+        <v>0.0622</v>
       </c>
       <c r="I3" t="n">
         <v>-0.199579964535948</v>
@@ -14640,10 +14640,10 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0581</v>
+        <v>0.0602</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0694</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1347943512394732</v>
@@ -14715,13 +14715,13 @@
         <v>0.5734261074873253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.058</v>
+        <v>0.0569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0701</v>
+        <v>0.0675</v>
       </c>
       <c r="I5" t="n">
         <v>-0.07188851600467815</v>
@@ -14793,13 +14793,13 @@
         <v>0.4306561157064768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0683</v>
+        <v>0.0599</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1075</v>
+        <v>0.0752</v>
       </c>
       <c r="I6" t="n">
         <v>-0.09965364014193925</v>
@@ -14871,13 +14871,13 @@
         <v>0.2872603724204044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0595</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0713</v>
+        <v>0.1172</v>
       </c>
       <c r="I7" t="n">
         <v>-0.06384843158440812</v>
@@ -14949,13 +14949,13 @@
         <v>0.1436145008719819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0543</v>
+        <v>0.0641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0668</v>
+        <v>0.0741</v>
       </c>
       <c r="I8" t="n">
         <v>0.005210375512370314</v>
@@ -15027,13 +15027,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.058</v>
+        <v>0.0738</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0683</v>
+        <v>0.0954</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1684111376269845</v>
